--- a/uploads/ServiciosApoyo/serviciosapoyo.xlsx
+++ b/uploads/ServiciosApoyo/serviciosapoyo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto26/Proyecto16/Proyecto11/proyecto2/uploads/ServiciosApoyo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ServiciosApoyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CB82078-B08B-46FD-8932-0BE037C1EFD5}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DBD4D1-A652-42D6-9F3A-3E3CF7DF431A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,10 +439,10 @@
         <v>1620</v>
       </c>
       <c r="E2">
-        <v>54389000</v>
+        <v>49176755</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -459,10 +459,10 @@
         <v>135</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>29929500</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -479,10 +479,10 @@
         <v>540</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>15962400</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
